--- a/Code/Results/Cases/Case_5_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_255/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73157050949602</v>
+        <v>13.38281187720568</v>
       </c>
       <c r="C2">
-        <v>6.634764737096871</v>
+        <v>6.832164312212846</v>
       </c>
       <c r="D2">
-        <v>5.391531282137664</v>
+        <v>7.896926053294457</v>
       </c>
       <c r="E2">
-        <v>7.64221971865725</v>
+        <v>12.68668211513308</v>
       </c>
       <c r="F2">
-        <v>24.49297058673511</v>
+        <v>37.45241620910736</v>
       </c>
       <c r="I2">
-        <v>17.67075481764229</v>
+        <v>28.21906590238764</v>
       </c>
       <c r="J2">
-        <v>5.834201908095403</v>
+        <v>10.0360696387417</v>
       </c>
       <c r="K2">
-        <v>11.35287747413497</v>
+        <v>10.72411960809379</v>
       </c>
       <c r="L2">
-        <v>6.894850240662202</v>
+        <v>11.0666831581491</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.38593238357584</v>
+        <v>28.97586259261847</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82114690915127</v>
+        <v>13.15373421135708</v>
       </c>
       <c r="C3">
-        <v>6.470546737508079</v>
+        <v>6.775562307236231</v>
       </c>
       <c r="D3">
-        <v>5.20311395708802</v>
+        <v>7.876471785846128</v>
       </c>
       <c r="E3">
-        <v>7.597044155885191</v>
+        <v>12.70393993533293</v>
       </c>
       <c r="F3">
-        <v>24.46171975626045</v>
+        <v>37.55689932773207</v>
       </c>
       <c r="I3">
-        <v>17.87073226928696</v>
+        <v>28.32461286280017</v>
       </c>
       <c r="J3">
-        <v>5.879743295836301</v>
+        <v>10.05583930295011</v>
       </c>
       <c r="K3">
-        <v>10.68092320702856</v>
+        <v>10.56022031431842</v>
       </c>
       <c r="L3">
-        <v>6.757582292207307</v>
+        <v>11.06398152686165</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.50017405255895</v>
+        <v>29.07451256594319</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26370786471508</v>
+        <v>13.01292755549217</v>
       </c>
       <c r="C4">
-        <v>6.36743314382156</v>
+        <v>6.740177643212042</v>
       </c>
       <c r="D4">
-        <v>5.085620271166285</v>
+        <v>7.864896692918507</v>
       </c>
       <c r="E4">
-        <v>7.572218133709492</v>
+        <v>12.71604418821481</v>
       </c>
       <c r="F4">
-        <v>24.46076057151668</v>
+        <v>37.62830855442296</v>
       </c>
       <c r="I4">
-        <v>18.00410984295774</v>
+        <v>28.3939580163021</v>
       </c>
       <c r="J4">
-        <v>5.909005744581659</v>
+        <v>10.06870283130541</v>
       </c>
       <c r="K4">
-        <v>10.24601207632448</v>
+        <v>10.45963443465757</v>
       </c>
       <c r="L4">
-        <v>6.674347942910491</v>
+        <v>11.0636389974305</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.58309239434284</v>
+        <v>29.14017482780641</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02959663913794</v>
+        <v>12.95558083655271</v>
       </c>
       <c r="C5">
-        <v>6.324870965522495</v>
+        <v>6.725605647484109</v>
       </c>
       <c r="D5">
-        <v>5.037357270534547</v>
+        <v>7.860430381992948</v>
       </c>
       <c r="E5">
-        <v>7.56283021794373</v>
+        <v>12.72135647915251</v>
       </c>
       <c r="F5">
-        <v>24.46481571215273</v>
+        <v>37.65923092040789</v>
       </c>
       <c r="I5">
-        <v>18.06104279873384</v>
+        <v>28.42335842002165</v>
       </c>
       <c r="J5">
-        <v>5.921257869809373</v>
+        <v>10.07412755763591</v>
       </c>
       <c r="K5">
-        <v>10.06320448519584</v>
+        <v>10.41870426955324</v>
       </c>
       <c r="L5">
-        <v>6.640730126118932</v>
+        <v>11.06383173903081</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.61997889451553</v>
+        <v>29.16821213268872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99030568742301</v>
+        <v>12.94606256384324</v>
       </c>
       <c r="C6">
-        <v>6.317771749448806</v>
+        <v>6.723176951551142</v>
       </c>
       <c r="D6">
-        <v>5.029322260473313</v>
+        <v>7.85970398255685</v>
       </c>
       <c r="E6">
-        <v>7.561315267244106</v>
+        <v>12.72226152972425</v>
       </c>
       <c r="F6">
-        <v>24.46575350185623</v>
+        <v>37.66447556738157</v>
       </c>
       <c r="I6">
-        <v>18.07065002079955</v>
+        <v>28.42830930071982</v>
       </c>
       <c r="J6">
-        <v>5.923312120826039</v>
+        <v>10.0750393795069</v>
       </c>
       <c r="K6">
-        <v>10.03251390830986</v>
+        <v>10.41191281736051</v>
       </c>
       <c r="L6">
-        <v>6.635167172051627</v>
+        <v>11.06388385230204</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.62628759848132</v>
+        <v>29.1729449572438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26057857732743</v>
+        <v>13.01215392839103</v>
       </c>
       <c r="C7">
-        <v>6.366861288692603</v>
+        <v>6.739981729303381</v>
       </c>
       <c r="D7">
-        <v>5.084970834096417</v>
+        <v>7.864835439759271</v>
       </c>
       <c r="E7">
-        <v>7.572088578895814</v>
+        <v>12.71611429350102</v>
       </c>
       <c r="F7">
-        <v>24.46079744322131</v>
+        <v>37.62871820782303</v>
       </c>
       <c r="I7">
-        <v>18.00486731732883</v>
+        <v>28.39434989729133</v>
       </c>
       <c r="J7">
-        <v>5.909169654401282</v>
+        <v>10.06877525056701</v>
       </c>
       <c r="K7">
-        <v>10.24356919409098</v>
+        <v>10.45908213316095</v>
       </c>
       <c r="L7">
-        <v>6.673893293928593</v>
+        <v>11.06364024954631</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.58357747011754</v>
+        <v>29.14054776942824</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42031630942081</v>
+        <v>13.30389992703903</v>
       </c>
       <c r="C8">
-        <v>6.578634360535811</v>
+        <v>6.812782541872305</v>
       </c>
       <c r="D8">
-        <v>5.326979867701338</v>
+        <v>7.88967119748086</v>
       </c>
       <c r="E8">
-        <v>7.626037087339943</v>
+        <v>12.69231998383495</v>
       </c>
       <c r="F8">
-        <v>24.47833005361673</v>
+        <v>37.48693475803132</v>
       </c>
       <c r="I8">
-        <v>17.73745753165796</v>
+        <v>28.25451665616566</v>
       </c>
       <c r="J8">
-        <v>5.849635126232167</v>
+        <v>10.04273604730381</v>
       </c>
       <c r="K8">
-        <v>11.12583969606175</v>
+        <v>10.66762508636218</v>
       </c>
       <c r="L8">
-        <v>6.847324781061078</v>
+        <v>11.06547926912064</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.42260114661354</v>
+        <v>29.00882008769197</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.53733668949447</v>
+        <v>13.87173661705169</v>
       </c>
       <c r="C9">
-        <v>6.974556777145777</v>
+        <v>6.950273706438755</v>
       </c>
       <c r="D9">
-        <v>5.784470820815387</v>
+        <v>7.946032235522823</v>
       </c>
       <c r="E9">
-        <v>7.755043276542831</v>
+        <v>12.6575993939333</v>
       </c>
       <c r="F9">
-        <v>24.663320621971</v>
+        <v>37.26656081265264</v>
       </c>
       <c r="I9">
-        <v>17.30110358518355</v>
+        <v>28.0163022252545</v>
       </c>
       <c r="J9">
-        <v>5.743178057180813</v>
+        <v>9.997404019970977</v>
       </c>
       <c r="K9">
-        <v>12.67786824447133</v>
+        <v>11.07492515923826</v>
       </c>
       <c r="L9">
-        <v>7.194141643372062</v>
+        <v>11.07946813859813</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.21364415921929</v>
+        <v>28.79092703572797</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.93265483794425</v>
+        <v>14.28233424825475</v>
       </c>
       <c r="C10">
-        <v>7.252166915030987</v>
+        <v>7.047726702871164</v>
       </c>
       <c r="D10">
-        <v>6.10692828042992</v>
+        <v>7.991899922352068</v>
       </c>
       <c r="E10">
-        <v>7.864072640155586</v>
+        <v>12.63933534555411</v>
       </c>
       <c r="F10">
-        <v>24.89890176858772</v>
+        <v>37.13991799865094</v>
       </c>
       <c r="I10">
-        <v>17.0401776766535</v>
+        <v>27.86320918337104</v>
       </c>
       <c r="J10">
-        <v>5.671208908115453</v>
+        <v>9.967563316600122</v>
       </c>
       <c r="K10">
-        <v>13.70911099533993</v>
+        <v>11.3704901918383</v>
       </c>
       <c r="L10">
-        <v>7.450977790180755</v>
+        <v>11.09598834228605</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13282437445885</v>
+        <v>28.65552698979307</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53332996326094</v>
+        <v>14.46689614775692</v>
       </c>
       <c r="C11">
-        <v>7.375323166276288</v>
+        <v>7.091214984104675</v>
       </c>
       <c r="D11">
-        <v>6.250099420902769</v>
+        <v>8.013686470472352</v>
       </c>
       <c r="E11">
-        <v>7.916772053070336</v>
+        <v>12.63259190499313</v>
       </c>
       <c r="F11">
-        <v>25.02929431345103</v>
+        <v>37.08998309681505</v>
       </c>
       <c r="I11">
-        <v>16.93588339857804</v>
+        <v>27.7983194297988</v>
       </c>
       <c r="J11">
-        <v>5.639820679181114</v>
+        <v>9.954734229075743</v>
       </c>
       <c r="K11">
-        <v>14.15465556606522</v>
+        <v>11.50360955901335</v>
       </c>
       <c r="L11">
-        <v>7.567854423282455</v>
+        <v>11.10483874285127</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.1135680623573</v>
+        <v>28.59929916586535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.75594637954937</v>
+        <v>14.53640271314378</v>
       </c>
       <c r="C12">
-        <v>7.421491597170217</v>
+        <v>7.107555553865817</v>
       </c>
       <c r="D12">
-        <v>6.303770659196776</v>
+        <v>8.022064575736074</v>
       </c>
       <c r="E12">
-        <v>7.937173131669349</v>
+        <v>12.63026264678011</v>
       </c>
       <c r="F12">
-        <v>25.08213179670532</v>
+        <v>37.07217913818896</v>
       </c>
       <c r="I12">
-        <v>16.89859309383912</v>
+        <v>27.77443069408994</v>
       </c>
       <c r="J12">
-        <v>5.628129044063447</v>
+        <v>9.949982941436881</v>
       </c>
       <c r="K12">
-        <v>14.31999623773572</v>
+        <v>11.55378327987766</v>
       </c>
       <c r="L12">
-        <v>7.612087254188688</v>
+        <v>11.10838022199973</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.10894117630582</v>
+        <v>28.57877960485483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.70821664890065</v>
+        <v>14.52145124534604</v>
       </c>
       <c r="C13">
-        <v>7.411569478890962</v>
+        <v>7.104042087601646</v>
       </c>
       <c r="D13">
-        <v>6.292236376133744</v>
+        <v>8.020254579792905</v>
       </c>
       <c r="E13">
-        <v>7.932759625931972</v>
+        <v>12.63075432845083</v>
       </c>
       <c r="F13">
-        <v>25.07059651982754</v>
+        <v>37.07596435793604</v>
       </c>
       <c r="I13">
-        <v>16.90652400455234</v>
+        <v>27.77954515492718</v>
       </c>
       <c r="J13">
-        <v>5.630638396437226</v>
+        <v>9.95100147229831</v>
       </c>
       <c r="K13">
-        <v>14.28453711969491</v>
+        <v>11.54298863155082</v>
       </c>
       <c r="L13">
-        <v>7.602562547997558</v>
+        <v>11.10760908248927</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.10981674604409</v>
+        <v>28.5831644775969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.5517415737999</v>
+        <v>14.47262252435055</v>
       </c>
       <c r="C14">
-        <v>7.379130947063239</v>
+        <v>7.092561922901425</v>
       </c>
       <c r="D14">
-        <v>6.254526102382162</v>
+        <v>8.014373202648798</v>
       </c>
       <c r="E14">
-        <v>7.91844155199798</v>
+        <v>12.63239578366419</v>
       </c>
       <c r="F14">
-        <v>25.03357125559419</v>
+        <v>37.08849619428572</v>
       </c>
       <c r="I14">
-        <v>16.93277054389544</v>
+        <v>27.79634038784788</v>
       </c>
       <c r="J14">
-        <v>5.63885490368172</v>
+        <v>9.954341199477955</v>
       </c>
       <c r="K14">
-        <v>14.16832583977808</v>
+        <v>11.50774234916415</v>
       </c>
       <c r="L14">
-        <v>7.571494174661754</v>
+        <v>11.10512630585988</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.11313313733845</v>
+        <v>28.5975955174915</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.4552665116316</v>
+        <v>14.44266180715483</v>
       </c>
       <c r="C15">
-        <v>7.359199952492965</v>
+        <v>7.085513204794635</v>
       </c>
       <c r="D15">
-        <v>6.231355495564149</v>
+        <v>8.010787225928865</v>
       </c>
       <c r="E15">
-        <v>7.909729226318916</v>
+        <v>12.63343041598844</v>
       </c>
       <c r="F15">
-        <v>25.01134638476573</v>
+        <v>37.09631629193376</v>
       </c>
       <c r="I15">
-        <v>16.94913839106921</v>
+        <v>27.80671698276824</v>
       </c>
       <c r="J15">
-        <v>5.643913076322668</v>
+        <v>9.956400776542681</v>
       </c>
       <c r="K15">
-        <v>14.09670370275419</v>
+        <v>11.48612102088532</v>
       </c>
       <c r="L15">
-        <v>7.552459640299797</v>
+        <v>11.1036302194872</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.11551602581601</v>
+        <v>28.606535603822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.8927182963133</v>
+        <v>14.2702224901372</v>
       </c>
       <c r="C16">
-        <v>7.24405377018575</v>
+        <v>7.044867134276597</v>
       </c>
       <c r="D16">
-        <v>6.097497492471179</v>
+        <v>7.990494278993592</v>
       </c>
       <c r="E16">
-        <v>7.860690941216067</v>
+        <v>12.63980747717008</v>
       </c>
       <c r="F16">
-        <v>24.89085812270863</v>
+        <v>37.14333595302936</v>
       </c>
       <c r="I16">
-        <v>17.0472944852772</v>
+        <v>27.86754553467507</v>
       </c>
       <c r="J16">
-        <v>5.673287395111366</v>
+        <v>9.968416696118155</v>
       </c>
       <c r="K16">
-        <v>13.67952018924415</v>
+        <v>11.36175988882496</v>
       </c>
       <c r="L16">
-        <v>7.443337682631003</v>
+        <v>11.09543664962552</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.1344476525264</v>
+        <v>28.65930968274081</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.53892560351635</v>
+        <v>14.16382143514835</v>
       </c>
       <c r="C17">
-        <v>7.172599880288989</v>
+        <v>7.019711581304169</v>
       </c>
       <c r="D17">
-        <v>6.014449778515203</v>
+        <v>7.978278019206965</v>
       </c>
       <c r="E17">
-        <v>7.83140131513695</v>
+        <v>12.64411993560546</v>
       </c>
       <c r="F17">
-        <v>24.82297882528582</v>
+        <v>37.17414807369148</v>
       </c>
       <c r="I17">
-        <v>17.11129021555641</v>
+        <v>27.90607932809586</v>
       </c>
       <c r="J17">
-        <v>5.691653639268438</v>
+        <v>9.97597874842527</v>
       </c>
       <c r="K17">
-        <v>13.41756098630054</v>
+        <v>11.28509481925741</v>
       </c>
       <c r="L17">
-        <v>7.37638200480869</v>
+        <v>11.09075077724923</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.15064969143135</v>
+        <v>28.69306005390418</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.33222414721331</v>
+        <v>14.10241692470868</v>
       </c>
       <c r="C18">
-        <v>7.131207782625521</v>
+        <v>7.005163734279654</v>
       </c>
       <c r="D18">
-        <v>5.96635389937371</v>
+        <v>7.971338524419953</v>
       </c>
       <c r="E18">
-        <v>7.814846713665665</v>
+        <v>12.64674769446141</v>
       </c>
       <c r="F18">
-        <v>24.78611566634869</v>
+        <v>37.19259276978358</v>
       </c>
       <c r="I18">
-        <v>17.14944596114161</v>
+        <v>27.92869031617536</v>
       </c>
       <c r="J18">
-        <v>5.702344551488168</v>
+        <v>9.980398444178265</v>
       </c>
       <c r="K18">
-        <v>13.26466905285804</v>
+        <v>11.24087598551054</v>
       </c>
       <c r="L18">
-        <v>7.337876437515385</v>
+        <v>11.08818139574691</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.16160765691739</v>
+        <v>28.71297741995784</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.26168583169282</v>
+        <v>14.08159311839189</v>
       </c>
       <c r="C19">
-        <v>7.117143282258636</v>
+        <v>7.00022469905544</v>
       </c>
       <c r="D19">
-        <v>5.950014230646378</v>
+        <v>7.969004001555671</v>
       </c>
       <c r="E19">
-        <v>7.809291787416815</v>
+        <v>12.64766273617582</v>
       </c>
       <c r="F19">
-        <v>24.77400494382791</v>
+        <v>37.19896184474592</v>
       </c>
       <c r="I19">
-        <v>17.16259231869246</v>
+        <v>27.93642284101613</v>
       </c>
       <c r="J19">
-        <v>5.705986144285938</v>
+        <v>9.981906947161553</v>
       </c>
       <c r="K19">
-        <v>13.21252091369863</v>
+        <v>11.22588446629309</v>
       </c>
       <c r="L19">
-        <v>7.324841074457146</v>
+        <v>11.08733311378244</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.16559490492577</v>
+        <v>28.7198078083261</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.57691921349873</v>
+        <v>14.17516974204152</v>
       </c>
       <c r="C20">
-        <v>7.180236806760365</v>
+        <v>7.022397658286804</v>
       </c>
       <c r="D20">
-        <v>6.023324703089521</v>
+        <v>7.979569491059833</v>
       </c>
       <c r="E20">
-        <v>7.834489029133154</v>
+        <v>12.64364562217038</v>
       </c>
       <c r="F20">
-        <v>24.82997825867098</v>
+        <v>37.17079329519772</v>
       </c>
       <c r="I20">
-        <v>17.10433741109232</v>
+        <v>27.90193103813716</v>
       </c>
       <c r="J20">
-        <v>5.689685362760724</v>
+        <v>9.975166492231793</v>
       </c>
       <c r="K20">
-        <v>13.44567667314832</v>
+        <v>11.29326901135252</v>
       </c>
       <c r="L20">
-        <v>7.383509211856761</v>
+        <v>11.09123658972174</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.14875427317221</v>
+        <v>28.68941499148998</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.59783320187136</v>
+        <v>14.48697558996007</v>
       </c>
       <c r="C21">
-        <v>7.388671766053237</v>
+        <v>7.095937434564789</v>
       </c>
       <c r="D21">
-        <v>6.265617584922843</v>
+        <v>8.016097267604279</v>
       </c>
       <c r="E21">
-        <v>7.92263505184378</v>
+        <v>12.6319075658727</v>
       </c>
       <c r="F21">
-        <v>25.0443516161125</v>
+        <v>37.08478528113565</v>
       </c>
       <c r="I21">
-        <v>16.92500038720878</v>
+        <v>27.79138866682557</v>
       </c>
       <c r="J21">
-        <v>5.636436238183839</v>
+        <v>9.953357345093794</v>
       </c>
       <c r="K21">
-        <v>14.20255144468653</v>
+        <v>11.51810177320666</v>
       </c>
       <c r="L21">
-        <v>7.580620649455658</v>
+        <v>11.10585041669538</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.11208551207599</v>
+        <v>28.59333579249645</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.23683701446267</v>
+        <v>14.68849893577606</v>
       </c>
       <c r="C22">
-        <v>7.522160848311038</v>
+        <v>7.143253988765362</v>
       </c>
       <c r="D22">
-        <v>6.420781778155312</v>
+        <v>8.040714271569314</v>
       </c>
       <c r="E22">
-        <v>7.982836349990849</v>
+        <v>12.6255433151684</v>
       </c>
       <c r="F22">
-        <v>25.20468055745271</v>
+        <v>37.03501720018929</v>
       </c>
       <c r="I22">
-        <v>16.82070642904713</v>
+        <v>27.72312749127765</v>
       </c>
       <c r="J22">
-        <v>5.602768198015399</v>
+        <v>9.939726187723027</v>
       </c>
       <c r="K22">
-        <v>14.67753641283973</v>
+        <v>11.66365017771085</v>
       </c>
       <c r="L22">
-        <v>7.709281039997057</v>
+        <v>11.11650800842901</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.10372520697445</v>
+        <v>28.53504679938766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.89835355301099</v>
+        <v>14.58116910890301</v>
       </c>
       <c r="C23">
-        <v>7.451170718895654</v>
+        <v>7.118070519978026</v>
       </c>
       <c r="D23">
-        <v>6.338270837505886</v>
+        <v>8.02750914351757</v>
       </c>
       <c r="E23">
-        <v>7.950468992200851</v>
+        <v>12.62882066575804</v>
       </c>
       <c r="F23">
-        <v>25.11722101466909</v>
+        <v>37.06098935579104</v>
       </c>
       <c r="I23">
-        <v>16.87514218801089</v>
+        <v>27.75919512094097</v>
       </c>
       <c r="J23">
-        <v>5.620633669680097</v>
+        <v>9.946944578342018</v>
       </c>
       <c r="K23">
-        <v>14.42582288875225</v>
+        <v>11.58610968233021</v>
       </c>
       <c r="L23">
-        <v>7.640637312665896</v>
+        <v>11.11071928027726</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.10670983058779</v>
+        <v>28.56574425533584</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.55975258922571</v>
+        <v>14.17003989375936</v>
       </c>
       <c r="C24">
-        <v>7.176785123656447</v>
+        <v>7.021183549002555</v>
       </c>
       <c r="D24">
-        <v>6.019313438845305</v>
+        <v>7.978985355297898</v>
       </c>
       <c r="E24">
-        <v>7.833092187735483</v>
+        <v>12.64385959676398</v>
       </c>
       <c r="F24">
-        <v>24.82680709130076</v>
+        <v>37.1723077155341</v>
       </c>
       <c r="I24">
-        <v>17.10747653614395</v>
+        <v>27.90380505526326</v>
       </c>
       <c r="J24">
-        <v>5.690574809696932</v>
+        <v>9.97553348841962</v>
       </c>
       <c r="K24">
-        <v>13.43297269891385</v>
+        <v>11.28957390136887</v>
       </c>
       <c r="L24">
-        <v>7.380287036048652</v>
+        <v>11.09101656567733</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.14960608468596</v>
+        <v>28.69106132373196</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.99295511585926</v>
+        <v>13.71899948496748</v>
       </c>
       <c r="C25">
-        <v>6.869684676811229</v>
+        <v>6.913679272198977</v>
       </c>
       <c r="D25">
-        <v>5.662896627475955</v>
+        <v>7.929986127447375</v>
       </c>
       <c r="E25">
-        <v>7.717645200521705</v>
+        <v>12.66571731270729</v>
       </c>
       <c r="F25">
-        <v>24.59632282058455</v>
+        <v>37.31999215324016</v>
       </c>
       <c r="I25">
-        <v>17.40913400107026</v>
+        <v>28.07689411168266</v>
       </c>
       <c r="J25">
-        <v>5.77087923908997</v>
+        <v>10.00905701835516</v>
       </c>
       <c r="K25">
-        <v>12.27715302776085</v>
+        <v>10.96519671820617</v>
       </c>
       <c r="L25">
-        <v>7.099817814867808</v>
+        <v>11.07458079971947</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.25797455420532</v>
+        <v>28.84554074526551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_255/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38281187720568</v>
+        <v>13.73157050949603</v>
       </c>
       <c r="C2">
-        <v>6.832164312212846</v>
+        <v>6.634764737096731</v>
       </c>
       <c r="D2">
-        <v>7.896926053294457</v>
+        <v>5.391531282137503</v>
       </c>
       <c r="E2">
-        <v>12.68668211513308</v>
+        <v>7.642219718657198</v>
       </c>
       <c r="F2">
-        <v>37.45241620910736</v>
+        <v>24.49297058673528</v>
       </c>
       <c r="I2">
-        <v>28.21906590238764</v>
+        <v>17.67075481764255</v>
       </c>
       <c r="J2">
-        <v>10.0360696387417</v>
+        <v>5.834201908095405</v>
       </c>
       <c r="K2">
-        <v>10.72411960809379</v>
+        <v>11.35287747413497</v>
       </c>
       <c r="L2">
-        <v>11.0666831581491</v>
+        <v>6.894850240662173</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.97586259261847</v>
+        <v>18.38593238357608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15373421135708</v>
+        <v>12.82114690915128</v>
       </c>
       <c r="C3">
-        <v>6.775562307236231</v>
+        <v>6.470546737508067</v>
       </c>
       <c r="D3">
-        <v>7.876471785846128</v>
+        <v>5.203113957088006</v>
       </c>
       <c r="E3">
-        <v>12.70393993533293</v>
+        <v>7.59704415588519</v>
       </c>
       <c r="F3">
-        <v>37.55689932773207</v>
+        <v>24.46171975626032</v>
       </c>
       <c r="I3">
-        <v>28.32461286280017</v>
+        <v>17.87073226928685</v>
       </c>
       <c r="J3">
-        <v>10.05583930295011</v>
+        <v>5.879743295836304</v>
       </c>
       <c r="K3">
-        <v>10.56022031431842</v>
+        <v>10.68092320702857</v>
       </c>
       <c r="L3">
-        <v>11.06398152686165</v>
+        <v>6.757582292207292</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.07451256594319</v>
+        <v>18.50017405255886</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.01292755549217</v>
+        <v>12.26370786471506</v>
       </c>
       <c r="C4">
-        <v>6.740177643212042</v>
+        <v>6.36743314382143</v>
       </c>
       <c r="D4">
-        <v>7.864896692918507</v>
+        <v>5.085620271166278</v>
       </c>
       <c r="E4">
-        <v>12.71604418821481</v>
+        <v>7.572218133709385</v>
       </c>
       <c r="F4">
-        <v>37.62830855442296</v>
+        <v>24.46076057151669</v>
       </c>
       <c r="I4">
-        <v>28.3939580163021</v>
+        <v>18.00410984295772</v>
       </c>
       <c r="J4">
-        <v>10.06870283130541</v>
+        <v>5.909005744581599</v>
       </c>
       <c r="K4">
-        <v>10.45963443465757</v>
+        <v>10.24601207632447</v>
       </c>
       <c r="L4">
-        <v>11.0636389974305</v>
+        <v>6.674347942910471</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.14017482780641</v>
+        <v>18.58309239434285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.95558083655271</v>
+        <v>12.02959663913792</v>
       </c>
       <c r="C5">
-        <v>6.725605647484109</v>
+        <v>6.324870965522583</v>
       </c>
       <c r="D5">
-        <v>7.860430381992948</v>
+        <v>5.037357270534547</v>
       </c>
       <c r="E5">
-        <v>12.72135647915251</v>
+        <v>7.562830217943796</v>
       </c>
       <c r="F5">
-        <v>37.65923092040789</v>
+        <v>24.46481571215277</v>
       </c>
       <c r="I5">
-        <v>28.42335842002165</v>
+        <v>18.06104279873389</v>
       </c>
       <c r="J5">
-        <v>10.07412755763591</v>
+        <v>5.921257869809439</v>
       </c>
       <c r="K5">
-        <v>10.41870426955324</v>
+        <v>10.06320448519585</v>
       </c>
       <c r="L5">
-        <v>11.06383173903081</v>
+        <v>6.640730126118881</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.16821213268872</v>
+        <v>18.61997889451556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.94606256384324</v>
+        <v>11.99030568742302</v>
       </c>
       <c r="C6">
-        <v>6.723176951551142</v>
+        <v>6.317771749448788</v>
       </c>
       <c r="D6">
-        <v>7.85970398255685</v>
+        <v>5.029322260473058</v>
       </c>
       <c r="E6">
-        <v>12.72226152972425</v>
+        <v>7.561315267243994</v>
       </c>
       <c r="F6">
-        <v>37.66447556738157</v>
+        <v>24.46575350185658</v>
       </c>
       <c r="I6">
-        <v>28.42830930071982</v>
+        <v>18.07065002079993</v>
       </c>
       <c r="J6">
-        <v>10.0750393795069</v>
+        <v>5.923312120826038</v>
       </c>
       <c r="K6">
-        <v>10.41191281736051</v>
+        <v>10.03251390830974</v>
       </c>
       <c r="L6">
-        <v>11.06388385230204</v>
+        <v>6.635167172051569</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.1729449572438</v>
+        <v>18.62628759848175</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01215392839103</v>
+        <v>12.26057857732743</v>
       </c>
       <c r="C7">
-        <v>6.739981729303381</v>
+        <v>6.3668612886927</v>
       </c>
       <c r="D7">
-        <v>7.864835439759271</v>
+        <v>5.084970834096479</v>
       </c>
       <c r="E7">
-        <v>12.71611429350102</v>
+        <v>7.57208857889571</v>
       </c>
       <c r="F7">
-        <v>37.62871820782303</v>
+        <v>24.4607974432214</v>
       </c>
       <c r="I7">
-        <v>28.39434989729133</v>
+        <v>18.00486731732888</v>
       </c>
       <c r="J7">
-        <v>10.06877525056701</v>
+        <v>5.909169654401186</v>
       </c>
       <c r="K7">
-        <v>10.45908213316095</v>
+        <v>10.24356919409095</v>
       </c>
       <c r="L7">
-        <v>11.06364024954631</v>
+        <v>6.673893293928498</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.14054776942824</v>
+        <v>18.58357747011758</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30389992703903</v>
+        <v>13.42031630942088</v>
       </c>
       <c r="C8">
-        <v>6.812782541872305</v>
+        <v>6.578634360535786</v>
       </c>
       <c r="D8">
-        <v>7.88967119748086</v>
+        <v>5.326979867701248</v>
       </c>
       <c r="E8">
-        <v>12.69231998383495</v>
+        <v>7.626037087340006</v>
       </c>
       <c r="F8">
-        <v>37.48693475803132</v>
+        <v>24.47833005361674</v>
       </c>
       <c r="I8">
-        <v>28.25451665616566</v>
+        <v>17.73745753165799</v>
       </c>
       <c r="J8">
-        <v>10.04273604730381</v>
+        <v>5.849635126232231</v>
       </c>
       <c r="K8">
-        <v>10.66762508636218</v>
+        <v>11.12583969606179</v>
       </c>
       <c r="L8">
-        <v>11.06547926912064</v>
+        <v>6.847324781061076</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.00882008769197</v>
+        <v>18.42260114661363</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.87173661705169</v>
+        <v>15.53733668949448</v>
       </c>
       <c r="C9">
-        <v>6.950273706438755</v>
+        <v>6.974556777145745</v>
       </c>
       <c r="D9">
-        <v>7.946032235522823</v>
+        <v>5.784470820815311</v>
       </c>
       <c r="E9">
-        <v>12.6575993939333</v>
+        <v>7.755043276542792</v>
       </c>
       <c r="F9">
-        <v>37.26656081265264</v>
+        <v>24.66332062197094</v>
       </c>
       <c r="I9">
-        <v>28.0163022252545</v>
+        <v>17.30110358518355</v>
       </c>
       <c r="J9">
-        <v>9.997404019970977</v>
+        <v>5.743178057180721</v>
       </c>
       <c r="K9">
-        <v>11.07492515923826</v>
+        <v>12.67786824447134</v>
       </c>
       <c r="L9">
-        <v>11.07946813859813</v>
+        <v>7.194141643371994</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.79092703572797</v>
+        <v>18.21364415921925</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.28233424825475</v>
+        <v>16.93265483794425</v>
       </c>
       <c r="C10">
-        <v>7.047726702871164</v>
+        <v>7.252166915030759</v>
       </c>
       <c r="D10">
-        <v>7.991899922352068</v>
+        <v>6.106928280429891</v>
       </c>
       <c r="E10">
-        <v>12.63933534555411</v>
+        <v>7.864072640155584</v>
       </c>
       <c r="F10">
-        <v>37.13991799865094</v>
+        <v>24.89890176858775</v>
       </c>
       <c r="I10">
-        <v>27.86320918337104</v>
+        <v>17.04017767665352</v>
       </c>
       <c r="J10">
-        <v>9.967563316600122</v>
+        <v>5.671208908115514</v>
       </c>
       <c r="K10">
-        <v>11.3704901918383</v>
+        <v>13.70911099533989</v>
       </c>
       <c r="L10">
-        <v>11.09598834228605</v>
+        <v>7.450977790180757</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.65552698979307</v>
+        <v>18.13282437445891</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46689614775692</v>
+        <v>17.53332996326096</v>
       </c>
       <c r="C11">
-        <v>7.091214984104675</v>
+        <v>7.375323166276412</v>
       </c>
       <c r="D11">
-        <v>8.013686470472352</v>
+        <v>6.250099420902777</v>
       </c>
       <c r="E11">
-        <v>12.63259190499313</v>
+        <v>7.916772053070422</v>
       </c>
       <c r="F11">
-        <v>37.08998309681505</v>
+        <v>25.02929431345099</v>
       </c>
       <c r="I11">
-        <v>27.7983194297988</v>
+        <v>16.93588339857804</v>
       </c>
       <c r="J11">
-        <v>9.954734229075743</v>
+        <v>5.639820679181177</v>
       </c>
       <c r="K11">
-        <v>11.50360955901335</v>
+        <v>14.15465556606525</v>
       </c>
       <c r="L11">
-        <v>11.10483874285127</v>
+        <v>7.56785442328249</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.59929916586535</v>
+        <v>18.11356806235725</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.53640271314378</v>
+        <v>17.75594637954938</v>
       </c>
       <c r="C12">
-        <v>7.107555553865817</v>
+        <v>7.421491597170229</v>
       </c>
       <c r="D12">
-        <v>8.022064575736074</v>
+        <v>6.303770659196712</v>
       </c>
       <c r="E12">
-        <v>12.63026264678011</v>
+        <v>7.93717313166932</v>
       </c>
       <c r="F12">
-        <v>37.07217913818896</v>
+        <v>25.08213179670525</v>
       </c>
       <c r="I12">
-        <v>27.77443069408994</v>
+        <v>16.89859309383911</v>
       </c>
       <c r="J12">
-        <v>9.949982941436881</v>
+        <v>5.628129044063449</v>
       </c>
       <c r="K12">
-        <v>11.55378327987766</v>
+        <v>14.31999623773571</v>
       </c>
       <c r="L12">
-        <v>11.10838022199973</v>
+        <v>7.612087254188671</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.57877960485483</v>
+        <v>18.10894117630579</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.52145124534604</v>
+        <v>17.7082166489007</v>
       </c>
       <c r="C13">
-        <v>7.104042087601646</v>
+        <v>7.411569478890748</v>
       </c>
       <c r="D13">
-        <v>8.020254579792905</v>
+        <v>6.292236376133796</v>
       </c>
       <c r="E13">
-        <v>12.63075432845083</v>
+        <v>7.932759625932061</v>
       </c>
       <c r="F13">
-        <v>37.07596435793604</v>
+        <v>25.07059651982741</v>
       </c>
       <c r="I13">
-        <v>27.77954515492718</v>
+        <v>16.90652400455212</v>
       </c>
       <c r="J13">
-        <v>9.95100147229831</v>
+        <v>5.630638396437226</v>
       </c>
       <c r="K13">
-        <v>11.54298863155082</v>
+        <v>14.28453711969495</v>
       </c>
       <c r="L13">
-        <v>11.10760908248927</v>
+        <v>7.602562547997614</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.5831644775969</v>
+        <v>18.10981674604392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.47262252435055</v>
+        <v>17.55174157379989</v>
       </c>
       <c r="C14">
-        <v>7.092561922901425</v>
+        <v>7.379130947063345</v>
       </c>
       <c r="D14">
-        <v>8.014373202648798</v>
+        <v>6.254526102382131</v>
       </c>
       <c r="E14">
-        <v>12.63239578366419</v>
+        <v>7.918441551998024</v>
       </c>
       <c r="F14">
-        <v>37.08849619428572</v>
+        <v>25.03357125559415</v>
       </c>
       <c r="I14">
-        <v>27.79634038784788</v>
+        <v>16.9327705438955</v>
       </c>
       <c r="J14">
-        <v>9.954341199477955</v>
+        <v>5.638854903681849</v>
       </c>
       <c r="K14">
-        <v>11.50774234916415</v>
+        <v>14.16832583977808</v>
       </c>
       <c r="L14">
-        <v>11.10512630585988</v>
+        <v>7.571494174661766</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.5975955174915</v>
+        <v>18.11313313733846</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.44266180715483</v>
+        <v>17.45526651163161</v>
       </c>
       <c r="C15">
-        <v>7.085513204794635</v>
+        <v>7.359199952492965</v>
       </c>
       <c r="D15">
-        <v>8.010787225928865</v>
+        <v>6.231355495564162</v>
       </c>
       <c r="E15">
-        <v>12.63343041598844</v>
+        <v>7.909729226318832</v>
       </c>
       <c r="F15">
-        <v>37.09631629193376</v>
+        <v>25.01134638476568</v>
       </c>
       <c r="I15">
-        <v>27.80671698276824</v>
+        <v>16.9491383910692</v>
       </c>
       <c r="J15">
-        <v>9.956400776542681</v>
+        <v>5.643913076322637</v>
       </c>
       <c r="K15">
-        <v>11.48612102088532</v>
+        <v>14.0967037027542</v>
       </c>
       <c r="L15">
-        <v>11.1036302194872</v>
+        <v>7.552459640299737</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.606535603822</v>
+        <v>18.115516025816</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.2702224901372</v>
+        <v>16.89271829631333</v>
       </c>
       <c r="C16">
-        <v>7.044867134276597</v>
+        <v>7.244053770185747</v>
       </c>
       <c r="D16">
-        <v>7.990494278993592</v>
+        <v>6.097497492471188</v>
       </c>
       <c r="E16">
-        <v>12.63980747717008</v>
+        <v>7.860690941216024</v>
       </c>
       <c r="F16">
-        <v>37.14333595302936</v>
+        <v>24.89085812270858</v>
       </c>
       <c r="I16">
-        <v>27.86754553467507</v>
+        <v>17.04729448527714</v>
       </c>
       <c r="J16">
-        <v>9.968416696118155</v>
+        <v>5.673287395111332</v>
       </c>
       <c r="K16">
-        <v>11.36175988882496</v>
+        <v>13.67952018924417</v>
       </c>
       <c r="L16">
-        <v>11.09543664962552</v>
+        <v>7.443337682630961</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.65930968274081</v>
+        <v>18.13444765252637</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.16382143514835</v>
+        <v>16.53892560351632</v>
       </c>
       <c r="C17">
-        <v>7.019711581304169</v>
+        <v>7.172599880289209</v>
       </c>
       <c r="D17">
-        <v>7.978278019206965</v>
+        <v>6.014449778515154</v>
       </c>
       <c r="E17">
-        <v>12.64411993560546</v>
+        <v>7.831401315136957</v>
       </c>
       <c r="F17">
-        <v>37.17414807369148</v>
+        <v>24.82297882528567</v>
       </c>
       <c r="I17">
-        <v>27.90607932809586</v>
+        <v>17.11129021555636</v>
       </c>
       <c r="J17">
-        <v>9.97597874842527</v>
+        <v>5.691653639268536</v>
       </c>
       <c r="K17">
-        <v>11.28509481925741</v>
+        <v>13.41756098630053</v>
       </c>
       <c r="L17">
-        <v>11.09075077724923</v>
+        <v>7.37638200480865</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.69306005390418</v>
+        <v>18.15064969143122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.10241692470868</v>
+        <v>16.3322241472133</v>
       </c>
       <c r="C18">
-        <v>7.005163734279654</v>
+        <v>7.131207782625573</v>
       </c>
       <c r="D18">
-        <v>7.971338524419953</v>
+        <v>5.966353899373665</v>
       </c>
       <c r="E18">
-        <v>12.64674769446141</v>
+        <v>7.814846713665628</v>
       </c>
       <c r="F18">
-        <v>37.19259276978358</v>
+        <v>24.78611566634889</v>
       </c>
       <c r="I18">
-        <v>27.92869031617536</v>
+        <v>17.14944596114182</v>
       </c>
       <c r="J18">
-        <v>9.980398444178265</v>
+        <v>5.702344551488205</v>
       </c>
       <c r="K18">
-        <v>11.24087598551054</v>
+        <v>13.26466905285802</v>
       </c>
       <c r="L18">
-        <v>11.08818139574691</v>
+        <v>7.337876437515349</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.71297741995784</v>
+        <v>18.16160765691758</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08159311839189</v>
+        <v>16.26168583169279</v>
       </c>
       <c r="C19">
-        <v>7.00022469905544</v>
+        <v>7.117143282258742</v>
       </c>
       <c r="D19">
-        <v>7.969004001555671</v>
+        <v>5.950014230646442</v>
       </c>
       <c r="E19">
-        <v>12.64766273617582</v>
+        <v>7.809291787416815</v>
       </c>
       <c r="F19">
-        <v>37.19896184474592</v>
+        <v>24.774004943828</v>
       </c>
       <c r="I19">
-        <v>27.93642284101613</v>
+        <v>17.16259231869255</v>
       </c>
       <c r="J19">
-        <v>9.981906947161553</v>
+        <v>5.705986144285911</v>
       </c>
       <c r="K19">
-        <v>11.22588446629309</v>
+        <v>13.21252091369861</v>
       </c>
       <c r="L19">
-        <v>11.08733311378244</v>
+        <v>7.324841074457124</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.7198078083261</v>
+        <v>18.16559490492583</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.17516974204152</v>
+        <v>16.57691921349875</v>
       </c>
       <c r="C20">
-        <v>7.022397658286804</v>
+        <v>7.18023680676024</v>
       </c>
       <c r="D20">
-        <v>7.979569491059833</v>
+        <v>6.023324703089496</v>
       </c>
       <c r="E20">
-        <v>12.64364562217038</v>
+        <v>7.83448902913331</v>
       </c>
       <c r="F20">
-        <v>37.17079329519772</v>
+        <v>24.82997825867101</v>
       </c>
       <c r="I20">
-        <v>27.90193103813716</v>
+        <v>17.10433741109235</v>
       </c>
       <c r="J20">
-        <v>9.975166492231793</v>
+        <v>5.689685362760918</v>
       </c>
       <c r="K20">
-        <v>11.29326901135252</v>
+        <v>13.44567667314831</v>
       </c>
       <c r="L20">
-        <v>11.09123658972174</v>
+        <v>7.38350921185685</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.68941499148998</v>
+        <v>18.14875427317226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.48697558996007</v>
+        <v>17.59783320187132</v>
       </c>
       <c r="C21">
-        <v>7.095937434564789</v>
+        <v>7.388671766053327</v>
       </c>
       <c r="D21">
-        <v>8.016097267604279</v>
+        <v>6.265617584922777</v>
       </c>
       <c r="E21">
-        <v>12.6319075658727</v>
+        <v>7.92263505184382</v>
       </c>
       <c r="F21">
-        <v>37.08478528113565</v>
+        <v>25.04435161611262</v>
       </c>
       <c r="I21">
-        <v>27.79138866682557</v>
+        <v>16.92500038720891</v>
       </c>
       <c r="J21">
-        <v>9.953357345093794</v>
+        <v>5.636436238183935</v>
       </c>
       <c r="K21">
-        <v>11.51810177320666</v>
+        <v>14.20255144468649</v>
       </c>
       <c r="L21">
-        <v>11.10585041669538</v>
+        <v>7.580620649455692</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.59333579249645</v>
+        <v>18.11208551207616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.68849893577606</v>
+        <v>18.23683701446269</v>
       </c>
       <c r="C22">
-        <v>7.143253988765362</v>
+        <v>7.522160848311028</v>
       </c>
       <c r="D22">
-        <v>8.040714271569314</v>
+        <v>6.420781778155213</v>
       </c>
       <c r="E22">
-        <v>12.6255433151684</v>
+        <v>7.982836349990709</v>
       </c>
       <c r="F22">
-        <v>37.03501720018929</v>
+        <v>25.2046805574527</v>
       </c>
       <c r="I22">
-        <v>27.72312749127765</v>
+        <v>16.82070642904719</v>
       </c>
       <c r="J22">
-        <v>9.939726187723027</v>
+        <v>5.602768198015365</v>
       </c>
       <c r="K22">
-        <v>11.66365017771085</v>
+        <v>14.67753641283974</v>
       </c>
       <c r="L22">
-        <v>11.11650800842901</v>
+        <v>7.709281039996974</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.53504679938766</v>
+        <v>18.1037252069745</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58116910890301</v>
+        <v>17.89835355301097</v>
       </c>
       <c r="C23">
-        <v>7.118070519978026</v>
+        <v>7.451170718895872</v>
       </c>
       <c r="D23">
-        <v>8.02750914351757</v>
+        <v>6.338270837505851</v>
       </c>
       <c r="E23">
-        <v>12.62882066575804</v>
+        <v>7.950468992200816</v>
       </c>
       <c r="F23">
-        <v>37.06098935579104</v>
+        <v>25.1172210146691</v>
       </c>
       <c r="I23">
-        <v>27.75919512094097</v>
+        <v>16.87514218801097</v>
       </c>
       <c r="J23">
-        <v>9.946944578342018</v>
+        <v>5.620633669680098</v>
       </c>
       <c r="K23">
-        <v>11.58610968233021</v>
+        <v>14.42582288875226</v>
       </c>
       <c r="L23">
-        <v>11.11071928027726</v>
+        <v>7.640637312665813</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.56574425533584</v>
+        <v>18.10670983058776</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.17003989375936</v>
+        <v>16.55975258922573</v>
       </c>
       <c r="C24">
-        <v>7.021183549002555</v>
+        <v>7.176785123656446</v>
       </c>
       <c r="D24">
-        <v>7.978985355297898</v>
+        <v>6.01931343884528</v>
       </c>
       <c r="E24">
-        <v>12.64385959676398</v>
+        <v>7.833092187735578</v>
       </c>
       <c r="F24">
-        <v>37.1723077155341</v>
+        <v>24.82680709130091</v>
       </c>
       <c r="I24">
-        <v>27.90380505526326</v>
+        <v>17.10747653614407</v>
       </c>
       <c r="J24">
-        <v>9.97553348841962</v>
+        <v>5.690574809696991</v>
       </c>
       <c r="K24">
-        <v>11.28957390136887</v>
+        <v>13.43297269891388</v>
       </c>
       <c r="L24">
-        <v>11.09101656567733</v>
+        <v>7.380287036048697</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.69106132373196</v>
+        <v>18.14960608468604</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71899948496748</v>
+        <v>14.99295511585922</v>
       </c>
       <c r="C25">
-        <v>6.913679272198977</v>
+        <v>6.869684676811652</v>
       </c>
       <c r="D25">
-        <v>7.929986127447375</v>
+        <v>5.662896627475956</v>
       </c>
       <c r="E25">
-        <v>12.66571731270729</v>
+        <v>7.7176452005217</v>
       </c>
       <c r="F25">
-        <v>37.31999215324016</v>
+        <v>24.5963228205844</v>
       </c>
       <c r="I25">
-        <v>28.07689411168266</v>
+        <v>17.40913400107033</v>
       </c>
       <c r="J25">
-        <v>10.00905701835516</v>
+        <v>5.770879239090033</v>
       </c>
       <c r="K25">
-        <v>10.96519671820617</v>
+        <v>12.27715302776083</v>
       </c>
       <c r="L25">
-        <v>11.07458079971947</v>
+        <v>7.09981781486769</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.84554074526551</v>
+        <v>18.25797455420524</v>
       </c>
     </row>
   </sheetData>
